--- a/Тестовое задание онлайн инновации/чек листы проверок.xlsx
+++ b/Тестовое задание онлайн инновации/чек листы проверок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
   <si>
     <t>№</t>
   </si>
@@ -472,9 +472,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 10.2</t>
-  </si>
-  <si>
-    <t>101Hot-5</t>
   </si>
   <si>
     <t>101Hot-6, 101Hot-7, 101Hot-8, 101Hot-9, 101Hot-10</t>
@@ -891,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,7 +921,7 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L4" t="s">
         <v>111</v>
@@ -941,7 +938,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="K5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>110</v>
@@ -955,16 +952,14 @@
         <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>135</v>
-      </c>
+      <c r="E6" s="8"/>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>112</v>
@@ -978,7 +973,7 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -992,13 +987,13 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1009,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
         <v>110</v>
@@ -1023,7 +1018,7 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
         <v>110</v>
@@ -1037,7 +1032,7 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
         <v>110</v>
@@ -1051,7 +1046,7 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -1065,7 +1060,7 @@
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1079,7 +1074,7 @@
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
         <v>110</v>
@@ -1093,7 +1088,7 @@
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
         <v>110</v>
@@ -1118,7 +1113,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
         <v>110</v>
@@ -1132,7 +1127,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>110</v>
@@ -1157,7 +1152,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
         <v>110</v>
@@ -1171,7 +1166,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
         <v>110</v>
@@ -1185,7 +1180,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
         <v>110</v>
@@ -1199,7 +1194,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
         <v>110</v>
@@ -1213,7 +1208,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1227,7 +1222,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
         <v>110</v>
@@ -1241,7 +1236,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
         <v>110</v>
@@ -1255,7 +1250,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
         <v>110</v>
@@ -1269,7 +1264,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
         <v>110</v>
@@ -1294,7 +1289,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
         <v>110</v>
@@ -1308,7 +1303,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
         <v>110</v>
@@ -1322,7 +1317,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
         <v>110</v>
@@ -1336,7 +1331,7 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
         <v>110</v>
@@ -1350,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
         <v>110</v>
@@ -1364,7 +1359,7 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
         <v>110</v>
@@ -1378,7 +1373,7 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
         <v>110</v>
@@ -1392,7 +1387,7 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
         <v>110</v>
@@ -1406,7 +1401,7 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
         <v>110</v>
@@ -1433,7 +1428,7 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
         <v>112</v>
@@ -1447,7 +1442,7 @@
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
         <v>112</v>
@@ -1461,7 +1456,7 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
         <v>112</v>
@@ -1475,7 +1470,7 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
         <v>112</v>
@@ -1489,7 +1484,7 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
         <v>112</v>
@@ -1503,7 +1498,7 @@
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
         <v>112</v>
@@ -1528,7 +1523,7 @@
         <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
         <v>110</v>
@@ -1542,7 +1537,7 @@
         <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
         <v>110</v>
@@ -1556,7 +1551,7 @@
         <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
         <v>110</v>
@@ -1570,7 +1565,7 @@
         <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
         <v>110</v>
@@ -1584,7 +1579,7 @@
         <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
         <v>110</v>
@@ -1598,7 +1593,7 @@
         <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
         <v>110</v>
@@ -1612,7 +1607,7 @@
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
         <v>110</v>
@@ -1637,7 +1632,7 @@
         <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
         <v>110</v>
@@ -1651,7 +1646,7 @@
         <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
         <v>110</v>
@@ -1665,7 +1660,7 @@
         <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
         <v>110</v>
@@ -1679,7 +1674,7 @@
         <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
         <v>110</v>
@@ -1693,7 +1688,7 @@
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
         <v>110</v>
@@ -1707,7 +1702,7 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
         <v>110</v>
@@ -1721,7 +1716,7 @@
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
         <v>110</v>
@@ -1746,7 +1741,7 @@
         <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
         <v>110</v>
@@ -1760,7 +1755,7 @@
         <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
         <v>110</v>
@@ -1774,7 +1769,7 @@
         <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D65" t="s">
         <v>110</v>
@@ -1799,7 +1794,7 @@
         <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s">
         <v>110</v>
@@ -1813,7 +1808,7 @@
         <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
         <v>110</v>
@@ -1827,7 +1822,7 @@
         <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s">
         <v>110</v>
@@ -1852,7 +1847,7 @@
         <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D71" t="s">
         <v>110</v>
@@ -1866,7 +1861,7 @@
         <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
         <v>110</v>
